--- a/Outside_big.xlsx
+++ b/Outside_big.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batra\Documents\Emily Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto\OneDrive\Documents\Emily_Capstone\Museum_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092529B7-21AB-47A1-909E-7D4A4CBF7C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C81515-1CCC-442D-A4A4-BE724138FBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>back</t>
   </si>
   <si>
-    <t>Starling_ventral_8_2024-01-16_10-04-28</t>
-  </si>
-  <si>
     <t>purple_belly1</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>yellow_belly2</t>
   </si>
   <si>
-    <t>callipela_ventral_10_2024-01-16_10-07-27</t>
-  </si>
-  <si>
     <t>breast</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
     <t>belly_full</t>
   </si>
   <si>
-    <t>callipela_dorsal_11_2024-01-16_10-08-39</t>
-  </si>
-  <si>
     <t>nape_black</t>
   </si>
   <si>
@@ -169,13 +160,7 @@
     <t>nape_full</t>
   </si>
   <si>
-    <t>Sturnus_ventral_12_2024-01-16_10-09-44</t>
-  </si>
-  <si>
     <t>belly_white</t>
-  </si>
-  <si>
-    <t>monal_dorsal_13_2024-01-16_10-11-40</t>
   </si>
   <si>
     <t>purple_back1</t>
@@ -196,25 +181,16 @@
     <t>mantle3</t>
   </si>
   <si>
-    <t>monal_dorsal_2_14_2024-01-16_10-13-26</t>
-  </si>
-  <si>
     <t>purple_back4</t>
   </si>
   <si>
     <t>purple_back5</t>
   </si>
   <si>
-    <t>monal_dorsal_3_15_2024-01-16_10-14-55</t>
-  </si>
-  <si>
     <t>head1</t>
   </si>
   <si>
     <t>head2</t>
-  </si>
-  <si>
-    <t>Gallus_ventral_16_2024-01-16_10-16-01</t>
   </si>
   <si>
     <t>breast_full</t>
@@ -232,25 +208,16 @@
     <t>breast_white</t>
   </si>
   <si>
-    <t>corvid_ventral_2_18_2024-01-16_10-19-01</t>
-  </si>
-  <si>
     <t>throat1</t>
   </si>
   <si>
     <t>throat2</t>
   </si>
   <si>
-    <t>poorwill_ventral_19_2024-01-16_10-21-19</t>
-  </si>
-  <si>
     <t>belly_dark</t>
   </si>
   <si>
     <t>belly_light</t>
-  </si>
-  <si>
-    <t>poorwill_dorsal_20_2024-01-16_10-21-58</t>
   </si>
   <si>
     <t>back_dark</t>
@@ -262,16 +229,49 @@
     <t>back_full</t>
   </si>
   <si>
-    <t>blackbird_ventral_21_2024-01-16_10-23-27</t>
-  </si>
-  <si>
     <t>Trichoglossus.moluccanus_ventral_1_2024-01-16_09-55-07</t>
   </si>
   <si>
     <t>Trichoglossus.moluccanus_dorsal_2_2024-01-16_09-57-19</t>
   </si>
   <si>
-    <t>Stellar's.jay_ventral_4_2024-01-16_10-00-55</t>
+    <t>Corvus.corax_ventral_2_18_2024-01-16_10-19-01</t>
+  </si>
+  <si>
+    <t>Euphagus.carolinus_ventral_21_2024-01-16_10-23-27</t>
+  </si>
+  <si>
+    <t>Gallus.sonneratii_ventral_16_2024-01-16_10-16-01</t>
+  </si>
+  <si>
+    <t>Lophoporus.impeyanus_dorsal_13_2024-01-16_10-11-40</t>
+  </si>
+  <si>
+    <t>Lophoporus.impeyanus_dorsal_2_14_2024-01-16_10-13-26</t>
+  </si>
+  <si>
+    <t>Lophoporus.impeyanus_dorsal_3_15_2024-01-16_10-14-55</t>
+  </si>
+  <si>
+    <t>Callipepla.californica_ventral_10_2024-01-16_10-07-27</t>
+  </si>
+  <si>
+    <t>Callipepla.californica_dorsal_11_2024-01-16_10-08-39</t>
+  </si>
+  <si>
+    <t>Phalaenoptilus.nuttallii_ventral_19_2024-01-16_10-21-19</t>
+  </si>
+  <si>
+    <t>Phalaenoptilus.nuttallii_dorsal_20_2024-01-16_10-21-58</t>
+  </si>
+  <si>
+    <t>Cyanocitta.stelleri_ventral_4_2024-01-16_10-00-55</t>
+  </si>
+  <si>
+    <t>Sturnus.vulgaris_ventral_12_2024-01-16_10-09-44</t>
+  </si>
+  <si>
+    <t>Lamprotornis.splendidus_ventral_8_2024-01-16_10-04-28</t>
   </si>
 </sst>
 </file>
@@ -642,16 +642,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:MB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="60.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:340" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>20</v>
       </c>
@@ -684,7 +684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2710,9 +2710,9 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -3723,9 +3723,9 @@
         <v>9.6509352326393127E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -4736,9 +4736,9 @@
         <v>6.7630350589752197E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -5749,9 +5749,9 @@
         <v>7.491060346364975E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -6762,9 +6762,9 @@
         <v>6.3085682690143585E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7775,9 +7775,9 @@
         <v>0.16947147250175476</v>
       </c>
     </row>
-    <row r="12" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -8788,9 +8788,9 @@
         <v>0.26703235507011414</v>
       </c>
     </row>
-    <row r="13" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -9801,9 +9801,9 @@
         <v>0.17631712555885315</v>
       </c>
     </row>
-    <row r="14" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -10814,9 +10814,9 @@
         <v>0.21240365505218506</v>
       </c>
     </row>
-    <row r="15" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -11827,12 +11827,12 @@
         <v>0.2539018988609314</v>
       </c>
     </row>
-    <row r="16" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
       </c>
       <c r="C16">
         <v>226</v>
@@ -12840,12 +12840,12 @@
         <v>0.25428101420402527</v>
       </c>
     </row>
-    <row r="17" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>306</v>
@@ -13853,12 +13853,12 @@
         <v>0.45932263135910034</v>
       </c>
     </row>
-    <row r="18" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>243</v>
@@ -14866,12 +14866,12 @@
         <v>0.20504200458526611</v>
       </c>
     </row>
-    <row r="19" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>218</v>
@@ -15879,12 +15879,12 @@
         <v>0.10672446340322495</v>
       </c>
     </row>
-    <row r="20" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>317</v>
@@ -16892,12 +16892,12 @@
         <v>3.6084093153476715E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>232</v>
@@ -17905,12 +17905,12 @@
         <v>9.6141256392002106E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
       </c>
       <c r="C22">
         <v>216</v>
@@ -18918,12 +18918,12 @@
         <v>2.3159082978963852E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>236</v>
@@ -19931,12 +19931,12 @@
         <v>5.6061957031488419E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>203</v>
@@ -20944,12 +20944,12 @@
         <v>0.39676964282989502</v>
       </c>
     </row>
-    <row r="25" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>277</v>
@@ -21957,12 +21957,12 @@
         <v>1.6729578375816345E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>254</v>
@@ -22970,12 +22970,12 @@
         <v>2.2471100091934204E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
         <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
       </c>
       <c r="C27">
         <v>239</v>
@@ -23983,12 +23983,12 @@
         <v>7.6079294085502625E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>223</v>
@@ -24996,12 +24996,12 @@
         <v>6.0681801289319992E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>283</v>
@@ -26009,12 +26009,12 @@
         <v>8.6305655539035797E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>221</v>
@@ -27022,12 +27022,12 @@
         <v>0.52129685878753662</v>
       </c>
     </row>
-    <row r="31" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>38</v>
@@ -28035,12 +28035,12 @@
         <v>0.19889156520366669</v>
       </c>
     </row>
-    <row r="32" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>162</v>
@@ -29048,12 +29048,12 @@
         <v>0.25861313939094543</v>
       </c>
     </row>
-    <row r="33" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>417</v>
@@ -30061,12 +30061,12 @@
         <v>0.30454462766647339</v>
       </c>
     </row>
-    <row r="34" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>56</v>
@@ -31074,12 +31074,12 @@
         <v>8.3840906620025635E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
         <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
       </c>
       <c r="C35">
         <v>98</v>
@@ -32087,12 +32087,12 @@
         <v>0.11143224686384201</v>
       </c>
     </row>
-    <row r="36" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>163</v>
@@ -33100,12 +33100,12 @@
         <v>7.2479508817195892E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>22</v>
@@ -34113,12 +34113,12 @@
         <v>0.14607143402099609</v>
       </c>
     </row>
-    <row r="38" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>59</v>
@@ -35126,12 +35126,12 @@
         <v>0.19949048757553101</v>
       </c>
     </row>
-    <row r="39" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>182</v>
@@ -36139,12 +36139,12 @@
         <v>0.10395101457834244</v>
       </c>
     </row>
-    <row r="40" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>219</v>
@@ -37152,12 +37152,12 @@
         <v>8.774258941411972E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>100</v>
@@ -38165,12 +38165,12 @@
         <v>0.32969802618026733</v>
       </c>
     </row>
-    <row r="42" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>174</v>
@@ -39178,12 +39178,12 @@
         <v>0.13659185171127319</v>
       </c>
     </row>
-    <row r="43" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>221</v>
@@ -40191,12 +40191,12 @@
         <v>0.3134213387966156</v>
       </c>
     </row>
-    <row r="44" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>260</v>
@@ -41204,12 +41204,12 @@
         <v>3.5311024636030197E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>436</v>
@@ -42217,12 +42217,12 @@
         <v>0.12160266190767288</v>
       </c>
     </row>
-    <row r="46" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>263</v>
@@ -43230,12 +43230,12 @@
         <v>0.21769188344478607</v>
       </c>
     </row>
-    <row r="47" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>179</v>
@@ -44243,12 +44243,12 @@
         <v>0.25468418002128601</v>
       </c>
     </row>
-    <row r="48" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>261</v>
@@ -45256,12 +45256,12 @@
         <v>0.1437830924987793</v>
       </c>
     </row>
-    <row r="49" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>253</v>
@@ -46269,12 +46269,12 @@
         <v>0.20552702248096466</v>
       </c>
     </row>
-    <row r="50" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <v>215</v>
@@ -47282,12 +47282,12 @@
         <v>0.56288975477218628</v>
       </c>
     </row>
-    <row r="51" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>238</v>
@@ -48295,12 +48295,12 @@
         <v>4.0640532970428467E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C52">
         <v>192</v>
@@ -49308,12 +49308,12 @@
         <v>0.34315064549446106</v>
       </c>
     </row>
-    <row r="53" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C53">
         <v>191</v>
@@ -50321,12 +50321,12 @@
         <v>0.34774371981620789</v>
       </c>
     </row>
-    <row r="54" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>269</v>
@@ -51334,12 +51334,12 @@
         <v>9.2765934765338898E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>247</v>
